--- a/output/1.xlsx
+++ b/output/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>ρ (g/cm3)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Overburden</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -463,6 +473,12 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>461.3679</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.595422535211267</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,6 +493,12 @@
       <c r="D3" t="n">
         <v>1.95</v>
       </c>
+      <c r="E3" t="n">
+        <v>1307.1024</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.37223989095865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -491,6 +513,12 @@
       <c r="D4" t="n">
         <v>2.02</v>
       </c>
+      <c r="E4" t="n">
+        <v>2183.1966</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.85101256185763</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -505,6 +533,12 @@
       <c r="D5" t="n">
         <v>2.06</v>
       </c>
+      <c r="E5" t="n">
+        <v>3073.709879999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.67713874786555</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +553,12 @@
       <c r="D6" t="n">
         <v>2.11</v>
       </c>
+      <c r="E6" t="n">
+        <v>3988.837979999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.25989151991479</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -533,6 +573,12 @@
       <c r="D7" t="n">
         <v>2.16</v>
       </c>
+      <c r="E7" t="n">
+        <v>4925.65158</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.71854594122648</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -547,6 +593,12 @@
       <c r="D8" t="n">
         <v>2.19</v>
       </c>
+      <c r="E8" t="n">
+        <v>5875.476479999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.08232079041412</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -561,6 +613,12 @@
       <c r="D9" t="n">
         <v>2.24</v>
       </c>
+      <c r="E9" t="n">
+        <v>6843.801599999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.4065175365921</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -575,6 +633,12 @@
       <c r="D10" t="n">
         <v>2.27</v>
       </c>
+      <c r="E10" t="n">
+        <v>7828.323299999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.68756427047574</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -589,6 +653,12 @@
       <c r="D11" t="n">
         <v>2.29</v>
       </c>
+      <c r="E11" t="n">
+        <v>8821.519199999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.92919518418556</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -603,6 +673,12 @@
       <c r="D12" t="n">
         <v>2.33</v>
       </c>
+      <c r="E12" t="n">
+        <v>9832.063499999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.15727123669761</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -617,6 +693,12 @@
       <c r="D13" t="n">
         <v>2.35</v>
       </c>
+      <c r="E13" t="n">
+        <v>10851.282</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17.3612956364139</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -631,6 +713,12 @@
       <c r="D14" t="n">
         <v>2.37</v>
       </c>
+      <c r="E14" t="n">
+        <v>11875.80456</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.5462459044296</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -645,6 +733,12 @@
       <c r="D15" t="n">
         <v>2.38</v>
       </c>
+      <c r="E15" t="n">
+        <v>12908.03436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.71133396121409</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -659,6 +753,12 @@
       <c r="D16" t="n">
         <v>2.4</v>
       </c>
+      <c r="E16" t="n">
+        <v>13948.93836</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.86555366682856</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -673,6 +773,12 @@
       <c r="D17" t="n">
         <v>2.41</v>
       </c>
+      <c r="E17" t="n">
+        <v>14994.17946</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.00573171996991</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -687,6 +793,12 @@
       <c r="D18" t="n">
         <v>2.43</v>
       </c>
+      <c r="E18" t="n">
+        <v>16048.09476</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.13924496516851</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -701,6 +813,12 @@
       <c r="D19" t="n">
         <v>2.44</v>
       </c>
+      <c r="E19" t="n">
+        <v>17102.87748</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.26219055599976</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -715,6 +833,12 @@
       <c r="D20" t="n">
         <v>2.45</v>
       </c>
+      <c r="E20" t="n">
+        <v>18165.46698</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.37697865351044</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -729,6 +853,12 @@
       <c r="D21" t="n">
         <v>2.46</v>
       </c>
+      <c r="E21" t="n">
+        <v>19232.39358</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18.48446765591914</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -742,6 +872,12 @@
       </c>
       <c r="D22" t="n">
         <v>2.47</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20303.65728</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.58569931521746</v>
       </c>
     </row>
   </sheetData>

--- a/output/1.xlsx
+++ b/output/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tension</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Overburden</t>
         </is>
       </c>
@@ -474,9 +469,6 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>461.3679</v>
-      </c>
-      <c r="F2" t="n">
         <v>8.595422535211267</v>
       </c>
     </row>
@@ -494,9 +486,6 @@
         <v>1.95</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.1024</v>
-      </c>
-      <c r="F3" t="n">
         <v>12.37223989095865</v>
       </c>
     </row>
@@ -514,9 +503,6 @@
         <v>2.02</v>
       </c>
       <c r="E4" t="n">
-        <v>2183.1966</v>
-      </c>
-      <c r="F4" t="n">
         <v>13.85101256185763</v>
       </c>
     </row>
@@ -534,9 +520,6 @@
         <v>2.06</v>
       </c>
       <c r="E5" t="n">
-        <v>3073.709879999999</v>
-      </c>
-      <c r="F5" t="n">
         <v>14.67713874786555</v>
       </c>
     </row>
@@ -554,9 +537,6 @@
         <v>2.11</v>
       </c>
       <c r="E6" t="n">
-        <v>3988.837979999999</v>
-      </c>
-      <c r="F6" t="n">
         <v>15.25989151991479</v>
       </c>
     </row>
@@ -574,9 +554,6 @@
         <v>2.16</v>
       </c>
       <c r="E7" t="n">
-        <v>4925.65158</v>
-      </c>
-      <c r="F7" t="n">
         <v>15.71854594122648</v>
       </c>
     </row>
@@ -594,9 +571,6 @@
         <v>2.19</v>
       </c>
       <c r="E8" t="n">
-        <v>5875.476479999999</v>
-      </c>
-      <c r="F8" t="n">
         <v>16.08232079041412</v>
       </c>
     </row>
@@ -614,9 +588,6 @@
         <v>2.24</v>
       </c>
       <c r="E9" t="n">
-        <v>6843.801599999999</v>
-      </c>
-      <c r="F9" t="n">
         <v>16.4065175365921</v>
       </c>
     </row>
@@ -634,9 +605,6 @@
         <v>2.27</v>
       </c>
       <c r="E10" t="n">
-        <v>7828.323299999999</v>
-      </c>
-      <c r="F10" t="n">
         <v>16.68756427047574</v>
       </c>
     </row>
@@ -654,9 +622,6 @@
         <v>2.29</v>
       </c>
       <c r="E11" t="n">
-        <v>8821.519199999999</v>
-      </c>
-      <c r="F11" t="n">
         <v>16.92919518418556</v>
       </c>
     </row>
@@ -674,9 +639,6 @@
         <v>2.33</v>
       </c>
       <c r="E12" t="n">
-        <v>9832.063499999998</v>
-      </c>
-      <c r="F12" t="n">
         <v>17.15727123669761</v>
       </c>
     </row>
@@ -694,9 +656,6 @@
         <v>2.35</v>
       </c>
       <c r="E13" t="n">
-        <v>10851.282</v>
-      </c>
-      <c r="F13" t="n">
         <v>17.3612956364139</v>
       </c>
     </row>
@@ -714,9 +673,6 @@
         <v>2.37</v>
       </c>
       <c r="E14" t="n">
-        <v>11875.80456</v>
-      </c>
-      <c r="F14" t="n">
         <v>17.5462459044296</v>
       </c>
     </row>
@@ -734,9 +690,6 @@
         <v>2.38</v>
       </c>
       <c r="E15" t="n">
-        <v>12908.03436</v>
-      </c>
-      <c r="F15" t="n">
         <v>17.71133396121409</v>
       </c>
     </row>
@@ -754,9 +707,6 @@
         <v>2.4</v>
       </c>
       <c r="E16" t="n">
-        <v>13948.93836</v>
-      </c>
-      <c r="F16" t="n">
         <v>17.86555366682856</v>
       </c>
     </row>
@@ -774,9 +724,6 @@
         <v>2.41</v>
       </c>
       <c r="E17" t="n">
-        <v>14994.17946</v>
-      </c>
-      <c r="F17" t="n">
         <v>18.00573171996991</v>
       </c>
     </row>
@@ -794,9 +741,6 @@
         <v>2.43</v>
       </c>
       <c r="E18" t="n">
-        <v>16048.09476</v>
-      </c>
-      <c r="F18" t="n">
         <v>18.13924496516851</v>
       </c>
     </row>
@@ -814,9 +758,6 @@
         <v>2.44</v>
       </c>
       <c r="E19" t="n">
-        <v>17102.87748</v>
-      </c>
-      <c r="F19" t="n">
         <v>18.26219055599976</v>
       </c>
     </row>
@@ -834,9 +775,6 @@
         <v>2.45</v>
       </c>
       <c r="E20" t="n">
-        <v>18165.46698</v>
-      </c>
-      <c r="F20" t="n">
         <v>18.37697865351044</v>
       </c>
     </row>
@@ -854,9 +792,6 @@
         <v>2.46</v>
       </c>
       <c r="E21" t="n">
-        <v>19232.39358</v>
-      </c>
-      <c r="F21" t="n">
         <v>18.48446765591914</v>
       </c>
     </row>
@@ -874,9 +809,6 @@
         <v>2.47</v>
       </c>
       <c r="E22" t="n">
-        <v>20303.65728</v>
-      </c>
-      <c r="F22" t="n">
         <v>18.58569931521746</v>
       </c>
     </row>
